--- a/수의계약내용.xlsx
+++ b/수의계약내용.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\서울시수의계약내용작성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF726975-BA4D-49EF-BB97-1FC981B5E645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327532CC-B3F9-4151-919E-741F32B34B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3143" yWindow="2355" windowWidth="22184" windowHeight="16883" xr2:uid="{26AF0F99-C6DD-409D-9C5D-C57EC6433A24}"/>
+    <workbookView xWindow="9600" yWindow="2498" windowWidth="22185" windowHeight="16882" xr2:uid="{26AF0F99-C6DD-409D-9C5D-C57EC6433A24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>https://www.seoul.go.kr/news/news_contract.do#</t>
   </si>
@@ -43,9 +43,6 @@
     <t>총무과</t>
   </si>
   <si>
-    <t>2022.05.10</t>
-  </si>
-  <si>
     <t>수도자재관리센터</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>2022.05.20</t>
   </si>
   <si>
-    <t>권진규 탄생 100주년기념 노실의 천사 관련 각종 인쇄물 제작</t>
-  </si>
-  <si>
     <t>이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,13 +166,39 @@
     <t>02-2124-8821</t>
   </si>
   <si>
-    <t>자치단체를 대상으로하는 지방계약법 시행령  제25조 및 제1항 제5호</t>
-  </si>
-  <si>
-    <t>김승태</t>
-  </si>
-  <si>
-    <t>경기도 김포시 양촌읍 황금4로 74</t>
+    <t>SeMA벙커 기록하는 기억 &lt;영상작품&gt; 연출 및 장비 임차 용역</t>
+  </si>
+  <si>
+    <t>2022.06.03</t>
+  </si>
+  <si>
+    <t>dotkvk@seoul.go.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-2124-8821</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자치단체를 대상으로하는 지방계약법 시행령 제25조 및 제1항 제5호</t>
+  </si>
+  <si>
+    <t>자치단체를 대상으로하는 지방계약법 시행령 제25조 및 제1항 제5호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현배</t>
+  </si>
+  <si>
+    <t>김현배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울시 용산구 후암로 28길 68</t>
+  </si>
+  <si>
+    <t>서울시 용산구 후암로 28길 68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -224,8 +244,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,57 +575,57 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
-      </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2">
-        <v>13650</v>
+        <v>13649</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -611,39 +634,39 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2">
-        <v>21978000</v>
+        <v>43</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-2146826273</v>
       </c>
       <c r="L2">
-        <v>20870000</v>
+        <v>14030000</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>13649</v>
+        <v>13648</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -652,96 +675,114 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-2146826273</v>
+      </c>
+      <c r="L3">
+        <v>14030000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>13648</v>
+        <v>13647</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>13647</v>
+        <v>13646</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>13646</v>
+        <v>13645</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>13645</v>
+        <v>13644</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
         <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -749,30 +790,33 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>13644</v>
+        <v>13643</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>13643</v>
+        <v>13642</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -781,50 +825,50 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>13642</v>
+        <v>13641</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>13641</v>
+        <v>13640</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/수의계약내용.xlsx
+++ b/수의계약내용.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\서울시수의계약내용작성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327532CC-B3F9-4151-919E-741F32B34B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8B6276-61F3-434E-AE54-8E77CA0D5D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="2498" windowWidth="22185" windowHeight="16882" xr2:uid="{26AF0F99-C6DD-409D-9C5D-C57EC6433A24}"/>
   </bookViews>
@@ -35,25 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
-  <si>
-    <t>https://www.seoul.go.kr/news/news_contract.do#</t>
-  </si>
-  <si>
-    <t>총무과</t>
-  </si>
-  <si>
-    <t>수도자재관리센터</t>
-  </si>
-  <si>
-    <t>행정지원과</t>
-  </si>
-  <si>
-    <t>파일있음</t>
-  </si>
-  <si>
-    <t>행정관리과</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,51 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022년 서울시립미술관 수장대 제작설치 및 시설 유지관리 용역</t>
-  </si>
-  <si>
-    <t>2022.06.02</t>
-  </si>
-  <si>
-    <t>SeMA벙커 기록하는 기억 전시공간 연출</t>
-  </si>
-  <si>
-    <t>2022.05.31</t>
-  </si>
-  <si>
-    <t>실체현미경 구매</t>
-  </si>
-  <si>
-    <t>최덕휴컬렉션 보존처리(2차) 계약</t>
-  </si>
-  <si>
-    <t>오존화가스 질량유량계(2호기) 교체</t>
-  </si>
-  <si>
-    <t>2022.05.30</t>
-  </si>
-  <si>
-    <t>수질자동측정기(TOA-DKK사) 소모품 구매</t>
-  </si>
-  <si>
-    <t>2022.05.27</t>
-  </si>
-  <si>
-    <t>2022 해외소장품걸작전 영상장비 대여 및 철거 용역</t>
-  </si>
-  <si>
-    <t>2022.05.24</t>
-  </si>
-  <si>
-    <t>2022년 북서울미술관 전시실 특수조명 구매 계약</t>
-  </si>
-  <si>
-    <t>직원 출퇴근 보행로 설치작업</t>
-  </si>
-  <si>
-    <t>2022.05.20</t>
-  </si>
-  <si>
     <t>이메일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,47 +94,6 @@
   </si>
   <si>
     <t>첨부파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dotkvk@seoul.go.kr</t>
-  </si>
-  <si>
-    <t>02-2124-8821</t>
-  </si>
-  <si>
-    <t>SeMA벙커 기록하는 기억 &lt;영상작품&gt; 연출 및 장비 임차 용역</t>
-  </si>
-  <si>
-    <t>2022.06.03</t>
-  </si>
-  <si>
-    <t>dotkvk@seoul.go.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-2124-8821</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자치단체를 대상으로하는 지방계약법 시행령 제25조 및 제1항 제5호</t>
-  </si>
-  <si>
-    <t>자치단체를 대상으로하는 지방계약법 시행령 제25조 및 제1항 제5호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현배</t>
-  </si>
-  <si>
-    <t>김현배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울시 용산구 후암로 28길 68</t>
-  </si>
-  <si>
-    <t>서울시 용산구 후암로 28길 68</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,11 +140,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,310 +458,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848B30A9-7516-4C9E-838E-3D9DE4BF230C}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:S10"/>
+      <selection activeCell="A2" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
-      </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
-        <v>13649</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-2146826273</v>
-      </c>
-      <c r="L2">
-        <v>14030000</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
-        <v>13648</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-2146826273</v>
-      </c>
-      <c r="L3">
-        <v>14030000</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>13647</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
-        <v>13646</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
-        <v>13645</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
-        <v>13644</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
-        <v>13643</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9">
-        <v>13642</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>13641</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11">
-        <v>13640</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/수의계약내용.xlsx
+++ b/수의계약내용.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\서울시수의계약내용작성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8B6276-61F3-434E-AE54-8E77CA0D5D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640D58A4-8303-4DEA-BE58-CF3F7AD29927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="2498" windowWidth="22185" windowHeight="16882" xr2:uid="{26AF0F99-C6DD-409D-9C5D-C57EC6433A24}"/>
+    <workbookView xWindow="2573" yWindow="1230" windowWidth="22185" windowHeight="16883" xr2:uid="{26AF0F99-C6DD-409D-9C5D-C57EC6433A24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+  <si>
+    <t>SeMA벙커 기록하는 기억 &lt;영상작품&gt; 연출 및 장비 임차 용역</t>
+  </si>
+  <si>
+    <t>https://www.seoul.go.kr/news/news_contract.do#</t>
+  </si>
+  <si>
+    <t>총무과</t>
+  </si>
+  <si>
+    <t>2022.06.03</t>
+  </si>
+  <si>
+    <t>2022년 서울시립미술관 수장대 제작설치 및 시설 유지관리 용역</t>
+  </si>
+  <si>
+    <t>2022.06.02</t>
+  </si>
+  <si>
+    <t>SeMA벙커 기록하는 기억 전시공간 연출</t>
+  </si>
+  <si>
+    <t>2022.05.31</t>
+  </si>
+  <si>
+    <t>실체현미경 구매</t>
+  </si>
+  <si>
+    <t>행정지원과</t>
+  </si>
+  <si>
+    <t>파일있음</t>
+  </si>
+  <si>
+    <t>최덕휴컬렉션 보존처리(2차) 계약</t>
+  </si>
+  <si>
+    <t>오존화가스 질량유량계(2호기) 교체</t>
+  </si>
+  <si>
+    <t>행정관리과</t>
+  </si>
+  <si>
+    <t>2022.05.30</t>
+  </si>
+  <si>
+    <t>수질자동측정기(TOA-DKK사) 소모품 구매</t>
+  </si>
+  <si>
+    <t>2022.05.27</t>
+  </si>
+  <si>
+    <t>2022 해외소장품걸작전 영상장비 대여 및 철거 용역</t>
+  </si>
+  <si>
+    <t>2022.05.24</t>
+  </si>
+  <si>
+    <t>2022년 북서울미술관 전시실 특수조명 구매 계약</t>
+  </si>
+  <si>
+    <t>직원 출퇴근 보행로 설치작업</t>
+  </si>
+  <si>
+    <t>수도자재관리센터</t>
+  </si>
+  <si>
+    <t>2022.05.20</t>
+  </si>
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848B30A9-7516-4C9E-838E-3D9DE4BF230C}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD11"/>
@@ -468,49 +537,258 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>13649</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>13648</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>13647</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>13646</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="G5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>13645</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>13644</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E7" t="s">
         <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>13643</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>13642</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>13641</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>13640</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/수의계약내용.xlsx
+++ b/수의계약내용.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charles\Documents\UiPath\서울시수의계약내용작성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640D58A4-8303-4DEA-BE58-CF3F7AD29927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09686585-4D1D-4843-BDF1-5FD76ED3DB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="1230" windowWidth="22185" windowHeight="16883" xr2:uid="{26AF0F99-C6DD-409D-9C5D-C57EC6433A24}"/>
+    <workbookView xWindow="4410" yWindow="4410" windowWidth="28800" windowHeight="15503" activeTab="2" xr2:uid="{26AF0F99-C6DD-409D-9C5D-C57EC6433A24}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="복사" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="46">
   <si>
     <t>SeMA벙커 기록하는 기억 &lt;영상작품&gt; 연출 및 장비 임차 용역</t>
   </si>
@@ -55,57 +57,9 @@
     <t>2022.06.02</t>
   </si>
   <si>
-    <t>SeMA벙커 기록하는 기억 전시공간 연출</t>
-  </si>
-  <si>
-    <t>2022.05.31</t>
-  </si>
-  <si>
-    <t>실체현미경 구매</t>
-  </si>
-  <si>
-    <t>행정지원과</t>
-  </si>
-  <si>
-    <t>파일있음</t>
-  </si>
-  <si>
-    <t>최덕휴컬렉션 보존처리(2차) 계약</t>
-  </si>
-  <si>
-    <t>오존화가스 질량유량계(2호기) 교체</t>
-  </si>
-  <si>
-    <t>행정관리과</t>
-  </si>
-  <si>
-    <t>2022.05.30</t>
-  </si>
-  <si>
-    <t>수질자동측정기(TOA-DKK사) 소모품 구매</t>
-  </si>
-  <si>
-    <t>2022.05.27</t>
-  </si>
-  <si>
-    <t>2022 해외소장품걸작전 영상장비 대여 및 철거 용역</t>
-  </si>
-  <si>
-    <t>2022.05.24</t>
-  </si>
-  <si>
-    <t>2022년 북서울미술관 전시실 특수조명 구매 계약</t>
-  </si>
-  <si>
-    <t>직원 출퇴근 보행로 설치작업</t>
-  </si>
-  <si>
     <t>수도자재관리센터</t>
   </si>
   <si>
-    <t>2022.05.20</t>
-  </si>
-  <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +118,78 @@
   <si>
     <t>첨부파일</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제12회 서울미디어시티비엔날레 사전프로그램(프리비엔날레) 그래픽 디자인 및 인쇄물 제작 용역</t>
+  </si>
+  <si>
+    <t>2022.06.27</t>
+  </si>
+  <si>
+    <t>제12회 서울미디어시티비엔날레 사전프로그램(프리비엔날레) 공간 디자인 용역</t>
+  </si>
+  <si>
+    <t>2022.06.22</t>
+  </si>
+  <si>
+    <t>제12회 서울미디어시티비엔날레 사전프로그램(프리비엔날레) 작품해포 및 설치, 운송 용역</t>
+  </si>
+  <si>
+    <t>2022.06.17</t>
+  </si>
+  <si>
+    <t>서울역사편찬원 발간물 이전 용역</t>
+  </si>
+  <si>
+    <t>시사편찬과</t>
+  </si>
+  <si>
+    <t>2022.06.10</t>
+  </si>
+  <si>
+    <t>서울역사편찬원 계단장석 및 주변장석 파손에 따른 개보수공사</t>
+  </si>
+  <si>
+    <t>서울문화마당 제21권 발간 계약</t>
+  </si>
+  <si>
+    <t>2022.06.07</t>
+  </si>
+  <si>
+    <t>소형자재 출고사무실 화장실 신설공사(전기)</t>
+  </si>
+  <si>
+    <t>소형자재 출고사무실 화장실 신설공사</t>
+  </si>
+  <si>
+    <t>dotkvk@seoul.go.kr</t>
+  </si>
+  <si>
+    <t>02-2124-8821</t>
+  </si>
+  <si>
+    <t>자치단체를 대상으로하는 지방계약법 시행령  제25조 및 제1항 제5호</t>
+  </si>
+  <si>
+    <t>안미르</t>
+  </si>
+  <si>
+    <t>경기도 파주시 회동길 125-15(문발동)</t>
+  </si>
+  <si>
+    <t>지방자치단체를 당사자로하는 계약에 관한 법률 시행령 제25조</t>
+  </si>
+  <si>
+    <t>권동현</t>
+  </si>
+  <si>
+    <t>서울시 동대문구 천호대로 13길 16-0(용두동)</t>
+  </si>
+  <si>
+    <t>조병휘</t>
+  </si>
+  <si>
+    <t>서울시 영등포구 선유로70 우리벤처타운 1204호</t>
   </si>
 </sst>
 </file>
@@ -209,8 +235,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,6 +555,484 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06814C4-8E3B-4771-AEC0-B9865985E67F}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1">
+        <v>13648</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1">
+        <v>-2146826273</v>
+      </c>
+      <c r="L1">
+        <v>21340000</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>13647</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-2146826273</v>
+      </c>
+      <c r="L2">
+        <v>14540000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>13646</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-2146826273</v>
+      </c>
+      <c r="L3">
+        <v>21160000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>13645</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>13644</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>13643</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>13642</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>13641</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7332CAA-6EC4-4A3D-9050-B2B6492611F1}">
+  <dimension ref="A2:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetData>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>13648</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-2146826273</v>
+      </c>
+      <c r="L2">
+        <v>21340000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>13647</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-2146826273</v>
+      </c>
+      <c r="L3">
+        <v>14540000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>13646</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-2146826273</v>
+      </c>
+      <c r="L4">
+        <v>21160000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>13645</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>13644</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>13643</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>13642</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>13641</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848B30A9-7516-4C9E-838E-3D9DE4BF230C}">
   <dimension ref="A1:O11"/>
   <sheetViews>
@@ -537,57 +1044,57 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2">
-        <v>13649</v>
+        <v>13648</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -596,18 +1103,39 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>7</v>
       </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-2146826273</v>
+      </c>
+      <c r="L2">
+        <v>21340000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3">
-        <v>13648</v>
+        <v>13647</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -616,18 +1144,39 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-2146826273</v>
+      </c>
+      <c r="L3">
+        <v>14540000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
-        <v>13647</v>
+        <v>13646</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -636,159 +1185,171 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-2146826273</v>
+      </c>
+      <c r="L4">
+        <v>21160000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5">
-        <v>13646</v>
+        <v>13645</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>13645</v>
+        <v>13644</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>13644</v>
+        <v>13643</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>13643</v>
+        <v>13642</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>13642</v>
+        <v>13641</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>13641</v>
+        <v>13640</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10">
         <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>13640</v>
+        <v>13639</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
         <v>22</v>
-      </c>
-      <c r="G11">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
